--- a/Szabdan/Szoftver teszt/Gyakorlat/Program1/Tesztesetek.xlsx
+++ b/Szabdan/Szoftver teszt/Gyakorlat/Program1/Tesztesetek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\!2024-25\Szabdan\Szoftver teszt\Gyakorlat\Program1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.School\2024-25\Szabdan\Szoftver teszt\Gyakorlat\Program1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8863E72-2DF9-47A1-A121-8C3D12CD4EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D89C2F4-30F1-42BA-ABCB-72A8C03CE26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{E76C08E6-68FF-49AA-88B9-EE0AC9DA6B96}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{E76C08E6-68FF-49AA-88B9-EE0AC9DA6B96}"/>
   </bookViews>
   <sheets>
     <sheet name="program1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>Várható eredmény</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Esemény megfogalmazása</t>
   </si>
   <si>
-    <t>2.</t>
-  </si>
-  <si>
     <t>Sorsz</t>
   </si>
   <si>
@@ -63,15 +60,6 @@
     <t>HIBA</t>
   </si>
   <si>
-    <t>hiba visszadobása</t>
-  </si>
-  <si>
-    <t>Ékezetes betűk kódolása</t>
-  </si>
-  <si>
-    <t>helyes kódolás</t>
-  </si>
-  <si>
     <t>Leet fájlbeolvasás kódolása</t>
   </si>
   <si>
@@ -97,12 +85,159 @@
   </si>
   <si>
     <t>Vigenére kódolás üres kulcsszóval</t>
+  </si>
+  <si>
+    <t>Hiba visszadobása</t>
+  </si>
+  <si>
+    <t>Helyes kódolás</t>
+  </si>
+  <si>
+    <t>Ceasar-rejtjel dekódolás</t>
+  </si>
+  <si>
+    <t>Helyes dekódolás</t>
+  </si>
+  <si>
+    <t>MD5 kódolása üres kódolandó szóval</t>
+  </si>
+  <si>
+    <t>Ceasar-rejtjel kódolás beolvasott fájlal</t>
+  </si>
+  <si>
+    <t>Ceasar-rejtjel dekódolás beolvasott fájlal</t>
+  </si>
+  <si>
+    <t>Leet fájlbeolvasás dekódolása</t>
+  </si>
+  <si>
+    <t>Vigenére kódolás beolvasot fájlal</t>
+  </si>
+  <si>
+    <t>Bolvasás törlése</t>
+  </si>
+  <si>
+    <t>Üres fájl mentése</t>
+  </si>
+  <si>
+    <t>Alkalmazás inditása</t>
+  </si>
+  <si>
+    <t>Jó méretben nyilik meg</t>
+  </si>
+  <si>
+    <t>Leet ékezetes betűk kódolása</t>
+  </si>
+  <si>
+    <t>Vigenére dekódolás beolvasott fájlal</t>
+  </si>
+  <si>
+    <t>XOR használat</t>
+  </si>
+  <si>
+    <t>Gomb a dekodolásra</t>
+  </si>
+  <si>
+    <t>Sortörés mentése</t>
+  </si>
+  <si>
+    <t>ADFGVX kódolásnál ha nem adunk meg kulcsszót akkor összeomlik a program</t>
+  </si>
+  <si>
+    <t>A XOR használatánál nincs kódolásra/dekódolást kiválaszto rádiogomb</t>
+  </si>
+  <si>
+    <t>Ha nem olvastál be, is lehet használni a "Beolvasás törlése" gombot</t>
+  </si>
+  <si>
+    <t>Fájl mentésénél nincs alapbol a fájlnak kiterjesztése</t>
+  </si>
+  <si>
+    <t>MD5 kódolásnál lehet üres kódolandó szóval is kódolni</t>
+  </si>
+  <si>
+    <t>Törli a kódolandó szót</t>
+  </si>
+  <si>
+    <t>A "Beolvasás törlése" gomb törli a kódolandó szót</t>
+  </si>
+  <si>
+    <t>A mentés nem menti a sortöréseket</t>
+  </si>
+  <si>
+    <t>A program inditáskor nem jó ablak méretben nyilik meg</t>
+  </si>
+  <si>
+    <t>A mentés enged üres fájlt is menteni</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Morze kódolás</t>
+  </si>
+  <si>
+    <t>Helyesen müködik</t>
+  </si>
+  <si>
+    <t>Bezárja a programot</t>
+  </si>
+  <si>
+    <t>"Kilépés" gomb használata</t>
+  </si>
+  <si>
+    <t>Törli a beolvasást</t>
+  </si>
+  <si>
+    <t>XOR használata</t>
+  </si>
+  <si>
+    <t>A számnak a beviteli mezöje nem engedd 0 alá és 2^31-1 fölé</t>
+  </si>
+  <si>
+    <t>Fájlbeolvasás</t>
+  </si>
+  <si>
+    <t>Beolvassa az egysorban lévö szöveget</t>
+  </si>
+  <si>
+    <t>Vigenére használata üres kulcsszóval</t>
+  </si>
+  <si>
+    <t>Visza jelez a felhasználonak</t>
+  </si>
+  <si>
+    <t>Morze dekódolás</t>
+  </si>
+  <si>
+    <t>Caesar-rejtjel használata</t>
+  </si>
+  <si>
+    <t>A számnak a beviteli mezöje nem engedd 0 alá és 60000 fölé</t>
+  </si>
+  <si>
+    <t>Ceasar-rejtjel kódolás 25-nél nagyobb számmal</t>
+  </si>
+  <si>
+    <t>Ne engedjen nagyobb számot mint 25</t>
+  </si>
+  <si>
+    <t>Ceasar-rejtjel használatánál feleslegessen engedd 25-nél nagyobb számot</t>
+  </si>
+  <si>
+    <t>Caesar-rejtjel kódolás</t>
+  </si>
+  <si>
+    <t>MD5 kódolás</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="##."/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,14 +268,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -156,7 +297,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -472,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0231CE-89BE-4B9A-B007-29C9D24325B8}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,13 +647,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -520,13 +661,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -534,13 +675,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -548,13 +689,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -562,13 +703,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -576,13 +717,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -590,78 +731,335 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -671,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C129132E-D5C9-42AC-BCD9-E2627BC4C341}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="A6" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,18 +1082,154 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>